--- a/biology/Botanique/Ainoa/Ainoa.xlsx
+++ b/biology/Botanique/Ainoa/Ainoa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ainoa est un genre de lichens de la famille des Baeomycetaceae. Le genre contient deux espèces : Ainoa mooreana[1], et Ainoa geochroa. Le genre a été décrite en 2001 par H. Thorsten Lumbsch et Imke Schmitt pour les deux espèces. Celles-ci étaient autrefois placées dans le genre Trapelia[2],[3] Une troisième espèce, Ainoa bella originaire de l'est de l'Amérique du Nord, a été ajouté au genre en 2015[2].
-Le nom de genre Ainoa a été donné en l'honneur de Aino Marjatta Henssen (1925-2011), qui était un lichenologue et un systématiste allemand[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ainoa est un genre de lichens de la famille des Baeomycetaceae. Le genre contient deux espèces : Ainoa mooreana, et Ainoa geochroa. Le genre a été décrite en 2001 par H. Thorsten Lumbsch et Imke Schmitt pour les deux espèces. Celles-ci étaient autrefois placées dans le genre Trapelia, Une troisième espèce, Ainoa bella originaire de l'est de l'Amérique du Nord, a été ajouté au genre en 2015.
+Le nom de genre Ainoa a été donné en l'honneur de Aino Marjatta Henssen (1925-2011), qui était un lichenologue et un systématiste allemand.
 </t>
         </is>
       </c>
